--- a/docs/ValueSet-snomed-myelodysplastic-diseases-vs.xlsx
+++ b/docs/ValueSet-snomed-myelodysplastic-diseases-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-01T09:42:46-06:00</t>
+    <t>2023-02-02T10:26:54-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-snomed-myelodysplastic-diseases-vs.xlsx
+++ b/docs/ValueSet-snomed-myelodysplastic-diseases-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-02T10:26:54-06:00</t>
+    <t>2023-02-02T12:45:26-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-snomed-myelodysplastic-diseases-vs.xlsx
+++ b/docs/ValueSet-snomed-myelodysplastic-diseases-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-02T12:45:26-06:00</t>
+    <t>2023-02-02T13:14:50-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-snomed-myelodysplastic-diseases-vs.xlsx
+++ b/docs/ValueSet-snomed-myelodysplastic-diseases-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-02T13:14:50-06:00</t>
+    <t>2023-03-28T10:36:55-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-snomed-myelodysplastic-diseases-vs.xlsx
+++ b/docs/ValueSet-snomed-myelodysplastic-diseases-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-04T09:48:28-05:00</t>
+    <t>2023-05-04T21:27:58-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-snomed-myelodysplastic-diseases-vs.xlsx
+++ b/docs/ValueSet-snomed-myelodysplastic-diseases-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-04T21:27:58-05:00</t>
+    <t>2023-05-05T10:07:01-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
